--- a/data/trans_camb/IP19C01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C01-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>-36,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-14,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>-11,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>25,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,24</t>
+          <t>22,99</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,24</t>
+          <t>7,18</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 15,74</t>
+          <t>-64,61; -13,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 9,27</t>
+          <t>-35,45; -3,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 16,39</t>
+          <t>-48,42; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 6,76</t>
+          <t>-9,26; 52,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 12,63</t>
+          <t>-20,06; 45,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,5; 28,07</t>
+          <t>-10,79; 52,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 8,05</t>
+          <t>-24,41; 21,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 6,72</t>
+          <t>-14,61; 24,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 18,63</t>
+          <t>-17,57; 28,37</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>-36,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>-14,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>-11,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,45%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>-3,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>10,12%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 23,29</t>
+          <t>-64,61; -13,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 13,97</t>
+          <t>-35,45; -3,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 24,5</t>
+          <t>-48,42; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 10,86</t>
+          <t>-10,98; 165,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 20,34</t>
+          <t>-29,75; 149,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,47; 45,32</t>
+          <t>-18,0; 156,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 12,11</t>
+          <t>-31,87; 34,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 10,06</t>
+          <t>-18,3; 40,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 27,92</t>
+          <t>-22,08; 46,2</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,59</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,45</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,26</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,7</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,13</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,76</t>
+          <t>19,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,87</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,1</t>
+          <t>12,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 24,8</t>
+          <t>-3,73; 15,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 20,04</t>
+          <t>-10,61; 9,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,47; 28,72</t>
+          <t>-1,99; 16,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 25,0</t>
+          <t>-13,19; 6,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 25,77</t>
+          <t>-7,62; 12,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,45; 33,1</t>
+          <t>9,5; 28,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 20,74</t>
+          <t>-5,24; 8,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 20,37</t>
+          <t>-6,85; 6,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 28,42</t>
+          <t>5,89; 18,63</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>-4,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>17,43%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,59; 40,97</t>
+          <t>-4,66; 23,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 33,57</t>
+          <t>-13,76; 13,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,51; 47,4</t>
+          <t>-2,3; 24,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,73; 46,26</t>
+          <t>-18,17; 10,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,51; 45,87</t>
+          <t>-10,48; 20,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,95; 59,68</t>
+          <t>13,47; 45,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,17; 33,91</t>
+          <t>-7,2; 12,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,19; 33,19</t>
+          <t>-9,3; 10,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,06; 46,81</t>
+          <t>8,16; 27,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-36,18</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-14,28</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>25,58</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,99</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>3,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-64,61; -13,15</t>
+          <t>-12,85; 9,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-35,45; -3,57</t>
+          <t>-12,84; 9,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-48,42; 0,0</t>
+          <t>-5,58; 17,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 52,18</t>
+          <t>-7,89; 15,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 45,5</t>
+          <t>-4,45; 18,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 52,19</t>
+          <t>-11,88; 11,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 21,68</t>
+          <t>-6,63; 9,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 24,04</t>
+          <t>-5,14; 11,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 28,37</t>
+          <t>-5,02; 10,67</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-36,18%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>-1,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,77%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>52,91%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,61; -13,15</t>
+          <t>-16,17; 14,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,45; -3,57</t>
+          <t>-16,24; 14,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,42; 0,0</t>
+          <t>-6,92; 25,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 165,69</t>
+          <t>-10,36; 23,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 149,05</t>
+          <t>-5,53; 29,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 156,97</t>
+          <t>-14,97; 17,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 34,88</t>
+          <t>-8,68; 13,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 40,94</t>
+          <t>-6,75; 17,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 46,2</t>
+          <t>-6,49; 15,32</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>14,59</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>18,26</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>15,13</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>23,76</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>12,87</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>21,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 9,89</t>
+          <t>5,64; 24,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 9,89</t>
+          <t>0,21; 20,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 17,1</t>
+          <t>8,47; 28,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 15,1</t>
+          <t>2,49; 25,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 18,53</t>
+          <t>3,85; 25,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 11,77</t>
+          <t>12,45; 33,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 9,14</t>
+          <t>5,45; 20,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 11,68</t>
+          <t>5,05; 20,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 10,67</t>
+          <t>14,48; 28,42</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>31,87%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 14,77</t>
+          <t>7,59; 40,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 14,95</t>
+          <t>0,38; 33,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 25,57</t>
+          <t>11,51; 47,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 23,56</t>
+          <t>3,73; 46,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 29,27</t>
+          <t>5,51; 45,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 17,88</t>
+          <t>17,95; 59,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 13,08</t>
+          <t>8,17; 33,91</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 17,3</t>
+          <t>7,19; 33,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 15,32</t>
+          <t>20,06; 46,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C01-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-64,61; -13,15</t>
+          <t>-63,04; -12,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,45; -3,57</t>
+          <t>-36,38; -3,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 52,18</t>
+          <t>-10,53; 53,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 45,5</t>
+          <t>-14,88; 45,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 52,19</t>
+          <t>-12,36; 52,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 21,68</t>
+          <t>-26,4; 18,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 24,04</t>
+          <t>-17,04; 23,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 28,37</t>
+          <t>-18,38; 28,29</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,61; -13,15</t>
+          <t>-63,04; -12,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,45; -3,57</t>
+          <t>-36,38; -3,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 165,69</t>
+          <t>-11,99; 180,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 149,05</t>
+          <t>-26,72; 144,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 156,97</t>
+          <t>-19,16; 162,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 34,88</t>
+          <t>-33,25; 30,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 40,94</t>
+          <t>-21,82; 39,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 46,2</t>
+          <t>-22,96; 46,87</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 15,62</t>
+          <t>-10,76; 15,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 26,97</t>
+          <t>0,82; 26,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 34,37</t>
+          <t>10,09; 35,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 21,83</t>
+          <t>-3,21; 21,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 14,48</t>
+          <t>-14,52; 14,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 29,32</t>
+          <t>3,23; 28,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 14,62</t>
+          <t>-3,57; 14,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 16,61</t>
+          <t>-1,85; 16,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 27,78</t>
+          <t>10,45; 28,14</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 26,55</t>
+          <t>-15,51; 26,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 47,39</t>
+          <t>0,99; 45,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,57; 60,5</t>
+          <t>14,03; 62,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 37,19</t>
+          <t>-4,26; 37,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 24,49</t>
+          <t>-19,56; 24,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 49,61</t>
+          <t>4,74; 49,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 24,6</t>
+          <t>-4,66; 24,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 28,03</t>
+          <t>-2,69; 27,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 45,88</t>
+          <t>15,32; 47,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 15,74</t>
+          <t>-2,94; 15,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 9,27</t>
+          <t>-10,12; 9,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 16,39</t>
+          <t>-2,62; 15,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 6,76</t>
+          <t>-12,52; 7,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 12,63</t>
+          <t>-7,32; 12,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,5; 28,07</t>
+          <t>9,94; 27,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 8,05</t>
+          <t>-5,4; 7,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 6,72</t>
+          <t>-5,78; 7,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 18,63</t>
+          <t>5,74; 18,01</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 23,29</t>
+          <t>-3,94; 22,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 13,97</t>
+          <t>-13,16; 14,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 24,5</t>
+          <t>-3,31; 22,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 10,86</t>
+          <t>-17,66; 11,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 20,34</t>
+          <t>-10,03; 20,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,47; 45,32</t>
+          <t>13,77; 44,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 12,11</t>
+          <t>-7,09; 12,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 10,06</t>
+          <t>-7,9; 11,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 27,92</t>
+          <t>7,79; 27,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 9,89</t>
+          <t>-12,19; 9,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 9,89</t>
+          <t>-13,02; 9,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 17,1</t>
+          <t>-4,02; 18,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 15,1</t>
+          <t>-7,9; 15,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 18,53</t>
+          <t>-3,89; 18,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 11,77</t>
+          <t>-11,65; 12,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 9,14</t>
+          <t>-6,53; 9,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 11,68</t>
+          <t>-5,93; 10,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 10,67</t>
+          <t>-4,65; 11,54</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 14,77</t>
+          <t>-15,93; 14,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 14,95</t>
+          <t>-16,35; 15,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 25,57</t>
+          <t>-5,08; 27,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 23,56</t>
+          <t>-10,27; 23,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 29,27</t>
+          <t>-4,88; 28,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 17,88</t>
+          <t>-15,21; 19,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 13,08</t>
+          <t>-8,4; 14,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 17,3</t>
+          <t>-7,59; 16,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 15,32</t>
+          <t>-6,04; 16,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,64; 24,8</t>
+          <t>4,33; 24,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 20,04</t>
+          <t>0,84; 21,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,47; 28,72</t>
+          <t>8,36; 27,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,49; 25,0</t>
+          <t>2,61; 25,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,85; 25,77</t>
+          <t>3,66; 25,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,45; 33,1</t>
+          <t>13,11; 34,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,45; 20,74</t>
+          <t>6,59; 21,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,05; 20,37</t>
+          <t>5,8; 20,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>14,48; 28,42</t>
+          <t>13,79; 28,03</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,59; 40,97</t>
+          <t>5,81; 39,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,38; 33,57</t>
+          <t>1,12; 34,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,51; 47,4</t>
+          <t>11,13; 43,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,73; 46,26</t>
+          <t>3,82; 45,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,51; 45,87</t>
+          <t>5,33; 45,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>17,95; 59,68</t>
+          <t>17,71; 61,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,17; 33,91</t>
+          <t>9,64; 36,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>7,19; 33,19</t>
+          <t>8,15; 34,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,06; 46,81</t>
+          <t>19,38; 45,51</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 9,78</t>
+          <t>-0,9; 9,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 9,83</t>
+          <t>-0,68; 9,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,06; 16,27</t>
+          <t>6,16; 15,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 11,17</t>
+          <t>0,21; 12,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,01; 13,36</t>
+          <t>1,99; 13,04</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,63; 21,07</t>
+          <t>10,2; 20,71</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,33; 9,07</t>
+          <t>1,28; 9,11</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,2; 9,7</t>
+          <t>2,12; 10,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,73; 16,96</t>
+          <t>9,49; 17,23</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 14,23</t>
+          <t>-1,14; 14,11</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 14,53</t>
+          <t>-0,88; 14,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>7,98; 23,72</t>
+          <t>8,36; 23,48</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,7</t>
+          <t>0,3; 19,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>2,95; 21,28</t>
+          <t>2,73; 20,31</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,31; 33,39</t>
+          <t>14,88; 32,97</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,91; 13,51</t>
+          <t>1,94; 13,55</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,11; 14,59</t>
+          <t>3,01; 15,1</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>13,76; 25,57</t>
+          <t>13,34; 25,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C01-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-63,04; -12,82</t>
+          <t>-62,06; -13,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,38; -3,57</t>
+          <t>-41,06; -3,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,42; 0,0</t>
+          <t>-52,91; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 53,74</t>
+          <t>-10,68; 53,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 45,12</t>
+          <t>-17,53; 44,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 52,88</t>
+          <t>-16,18; 52,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 18,57</t>
+          <t>-22,06; 22,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 23,48</t>
+          <t>-15,32; 24,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 28,29</t>
+          <t>-18,18; 27,82</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-63,04; -12,82</t>
+          <t>-62,06; -13,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,38; -3,57</t>
+          <t>-41,06; -3,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,42; 0,0</t>
+          <t>-52,91; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 180,12</t>
+          <t>-14,85; 175,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 144,08</t>
+          <t>-26,55; 132,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 162,64</t>
+          <t>-25,42; 155,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,25; 30,04</t>
+          <t>-29,49; 37,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 39,44</t>
+          <t>-19,8; 40,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 46,87</t>
+          <t>-23,31; 45,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 15,28</t>
+          <t>-10,81; 15,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 26,93</t>
+          <t>1,95; 27,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,09; 35,23</t>
+          <t>9,93; 33,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 21,96</t>
+          <t>-6,04; 22,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 14,1</t>
+          <t>-12,87; 15,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 28,41</t>
+          <t>4,55; 29,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 14,94</t>
+          <t>-5,35; 13,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 16,89</t>
+          <t>-2,26; 17,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,45; 28,14</t>
+          <t>10,98; 28,31</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 26,63</t>
+          <t>-15,24; 26,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 45,98</t>
+          <t>3,86; 48,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,03; 62,36</t>
+          <t>13,72; 57,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 37,44</t>
+          <t>-7,79; 37,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,56; 24,74</t>
+          <t>-17,72; 25,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 49,08</t>
+          <t>6,11; 50,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 24,77</t>
+          <t>-7,59; 22,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 27,88</t>
+          <t>-2,98; 28,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 47,24</t>
+          <t>15,7; 46,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 15,09</t>
+          <t>-2,75; 14,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 9,69</t>
+          <t>-11,39; 8,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 15,1</t>
+          <t>-3,38; 15,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 7,17</t>
+          <t>-13,84; 6,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 12,85</t>
+          <t>-7,78; 11,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,94; 27,86</t>
+          <t>9,55; 27,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 7,94</t>
+          <t>-6,04; 8,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 7,99</t>
+          <t>-5,83; 7,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,74; 18,01</t>
+          <t>5,62; 17,79</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 22,02</t>
+          <t>-3,27; 21,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 14,53</t>
+          <t>-14,79; 12,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 22,38</t>
+          <t>-4,13; 22,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 11,3</t>
+          <t>-19,22; 10,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 20,78</t>
+          <t>-10,79; 19,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,77; 44,94</t>
+          <t>13,3; 44,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 12,35</t>
+          <t>-8,19; 11,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 11,79</t>
+          <t>-8,03; 11,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,79; 27,04</t>
+          <t>7,5; 26,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 9,74</t>
+          <t>-12,36; 9,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 9,95</t>
+          <t>-12,71; 9,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 18,28</t>
+          <t>-4,13; 17,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 15,08</t>
+          <t>-8,77; 13,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 18,37</t>
+          <t>-4,71; 17,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 12,52</t>
+          <t>-11,72; 11,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 9,8</t>
+          <t>-7,81; 8,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 10,7</t>
+          <t>-5,32; 10,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 11,54</t>
+          <t>-4,24; 11,95</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 14,65</t>
+          <t>-16,05; 14,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 15,51</t>
+          <t>-16,5; 14,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 27,52</t>
+          <t>-5,18; 26,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 23,05</t>
+          <t>-11,33; 21,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 28,87</t>
+          <t>-6,05; 26,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 19,67</t>
+          <t>-15,27; 18,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 14,69</t>
+          <t>-10,1; 12,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 16,2</t>
+          <t>-6,88; 15,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 16,95</t>
+          <t>-5,49; 17,74</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,33; 24,34</t>
+          <t>4,39; 24,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,84; 21,2</t>
+          <t>0,49; 20,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,36; 27,41</t>
+          <t>8,9; 27,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,61; 25,47</t>
+          <t>0,96; 22,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,66; 25,62</t>
+          <t>4,24; 26,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,11; 34,26</t>
+          <t>13,69; 34,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,59; 21,97</t>
+          <t>6,03; 21,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,8; 20,77</t>
+          <t>5,23; 20,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,79; 28,03</t>
+          <t>13,82; 27,95</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5,81; 39,16</t>
+          <t>5,73; 39,9</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,12; 34,01</t>
+          <t>0,9; 33,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,13; 43,77</t>
+          <t>11,86; 45,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,82; 45,87</t>
+          <t>1,42; 39,49</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,33; 45,99</t>
+          <t>6,17; 45,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>17,71; 61,88</t>
+          <t>19,35; 60,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,64; 36,19</t>
+          <t>8,39; 34,88</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,15; 34,67</t>
+          <t>7,61; 33,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>19,38; 45,51</t>
+          <t>20,08; 46,09</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 9,77</t>
+          <t>-0,62; 10,1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 9,76</t>
+          <t>-0,6; 9,67</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,16; 15,94</t>
+          <t>5,93; 15,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,21; 12,11</t>
+          <t>0,15; 11,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,99; 13,04</t>
+          <t>1,41; 13,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,2; 20,71</t>
+          <t>10,31; 21,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,28; 9,11</t>
+          <t>1,58; 9,43</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,12; 10,03</t>
+          <t>1,97; 10,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,49; 17,23</t>
+          <t>9,51; 17,31</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 14,11</t>
+          <t>-0,86; 14,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 14,18</t>
+          <t>-0,85; 14,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8,36; 23,48</t>
+          <t>8,27; 23,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,3; 19,25</t>
+          <t>-0,15; 18,39</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>2,73; 20,31</t>
+          <t>2,05; 20,84</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>14,88; 32,97</t>
+          <t>14,92; 33,91</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,94; 13,55</t>
+          <t>2,18; 14,2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,01; 15,1</t>
+          <t>2,81; 15,39</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>13,34; 25,87</t>
+          <t>13,4; 25,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C01-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-36,18</t>
+          <t>12,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-14,28</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>18,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,58</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>9,62</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,99</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>17,33</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-62,06; -13,61</t>
+          <t>-0,08; 24,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-41,06; -3,63</t>
+          <t>-9,25; 17,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-52,91; 0,0</t>
+          <t>5,05; 30,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 53,4</t>
+          <t>-15,22; 9,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 44,24</t>
+          <t>-1,02; 20,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 52,33</t>
+          <t>4,53; 26,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 22,33</t>
+          <t>-4,26; 13,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 24,24</t>
+          <t>-1,41; 15,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 27,82</t>
+          <t>8,54; 24,97</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-36,18%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,77%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,91%</t>
+          <t>-6,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>25,99%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,06; -13,61</t>
+          <t>0,37; 44,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,06; -3,63</t>
+          <t>-13,64; 30,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-52,91; 0,0</t>
+          <t>7,51; 54,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 175,87</t>
+          <t>-20,17; 14,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,55; 132,38</t>
+          <t>-1,38; 32,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 155,27</t>
+          <t>6,17; 42,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 37,77</t>
+          <t>-6,37; 20,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 40,2</t>
+          <t>-2,14; 25,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 45,33</t>
+          <t>12,19; 40,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,13</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,11</t>
+          <t>18,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,82</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,53</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,53</t>
+          <t>11,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 15,66</t>
+          <t>-13,19; 6,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 27,28</t>
+          <t>-7,62; 12,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 33,62</t>
+          <t>9,07; 27,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 22,04</t>
+          <t>-3,73; 15,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 15,58</t>
+          <t>-10,61; 9,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 29,2</t>
+          <t>-2,5; 16,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 13,4</t>
+          <t>-5,24; 8,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 17,09</t>
+          <t>-6,85; 6,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,98; 28,31</t>
+          <t>5,34; 18,27</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>-4,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>16,79%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 26,91</t>
+          <t>-18,17; 10,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 48,88</t>
+          <t>-10,48; 20,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,72; 57,97</t>
+          <t>13,08; 45,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 37,82</t>
+          <t>-4,66; 23,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 25,85</t>
+          <t>-13,76; 13,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 50,08</t>
+          <t>-3,2; 23,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 22,11</t>
+          <t>-7,2; 12,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 28,09</t>
+          <t>-9,3; 10,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,7; 46,54</t>
+          <t>7,32; 27,3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,24</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,24</t>
+          <t>3,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 14,67</t>
+          <t>-7,89; 15,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 8,42</t>
+          <t>-4,45; 18,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 15,01</t>
+          <t>-11,56; 12,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 6,42</t>
+          <t>-12,85; 9,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 11,85</t>
+          <t>-12,84; 9,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,55; 27,66</t>
+          <t>-5,05; 17,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 8,07</t>
+          <t>-6,63; 9,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 7,61</t>
+          <t>-5,14; 11,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 17,79</t>
+          <t>-4,54; 11,21</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,45%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>-1,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>5,25%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 21,63</t>
+          <t>-10,36; 23,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 12,27</t>
+          <t>-5,53; 29,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 22,28</t>
+          <t>-14,84; 18,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 10,06</t>
+          <t>-16,17; 14,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 19,01</t>
+          <t>-16,24; 14,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,3; 44,34</t>
+          <t>-6,29; 26,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 11,97</t>
+          <t>-8,68; 13,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 11,32</t>
+          <t>-6,75; 17,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,5; 26,54</t>
+          <t>-5,84; 16,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>15,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>23,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>14,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>17,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>12,87</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>20,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 9,85</t>
+          <t>2,49; 25,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 9,92</t>
+          <t>3,85; 25,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 17,82</t>
+          <t>12,69; 33,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 13,82</t>
+          <t>5,64; 24,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 17,24</t>
+          <t>0,21; 20,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 11,85</t>
+          <t>7,98; 28,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 8,85</t>
+          <t>5,45; 20,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 10,66</t>
+          <t>5,05; 20,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 11,95</t>
+          <t>14,28; 28,26</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>31,68%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 14,44</t>
+          <t>3,73; 46,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 14,95</t>
+          <t>5,51; 45,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 26,75</t>
+          <t>17,92; 59,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 21,01</t>
+          <t>7,59; 40,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 26,52</t>
+          <t>0,38; 33,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 18,16</t>
+          <t>10,8; 47,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 12,92</t>
+          <t>8,17; 33,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 15,48</t>
+          <t>7,19; 33,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 17,74</t>
+          <t>20,0; 46,73</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14,59</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10,45</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18,26</t>
+          <t>15,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,7</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>15,13</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>23,76</t>
+          <t>11,03</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>12,87</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>21,1</t>
+          <t>13,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,39; 24,85</t>
+          <t>-0,07; 11,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,49; 20,83</t>
+          <t>2,01; 13,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,9; 27,88</t>
+          <t>9,99; 20,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,96; 22,84</t>
+          <t>-1,05; 9,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,24; 26,24</t>
+          <t>-1,1; 9,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,69; 34,01</t>
+          <t>5,87; 16,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,03; 21,64</t>
+          <t>1,33; 9,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,23; 20,46</t>
+          <t>2,2; 9,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,82; 27,95</t>
+          <t>9,37; 16,91</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>19,28%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5,73; 39,9</t>
+          <t>0,0; 17,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,9; 33,37</t>
+          <t>2,95; 21,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,86; 45,85</t>
+          <t>14,47; 32,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,42; 39,49</t>
+          <t>-1,45; 14,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,17; 45,51</t>
+          <t>-1,2; 14,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,35; 60,56</t>
+          <t>7,84; 23,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,39; 34,88</t>
+          <t>1,91; 13,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>7,61; 33,89</t>
+          <t>3,11; 14,59</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,08; 46,09</t>
+          <t>13,38; 25,29</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4,54</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>11,15</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>5,96</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>7,4</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>15,81</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>5,94</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>13,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 10,1</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 9,67</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>5,93; 15,83</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 11,64</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 13,09</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>10,31; 21,36</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,58; 9,43</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>1,97; 10,16</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>9,51; 17,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>6,43%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>6,36%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>15,62%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>9,0%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>11,19%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>23,9%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>7,65%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>8,63%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>19,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 14,78</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 14,16</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>8,27; 23,31</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 18,39</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 20,84</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>14,92; 33,91</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 14,2</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>2,81; 15,39</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>13,4; 25,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
